--- a/Alternatives/Alternative4_01/transit_fare/farematrix_alt4.xlsx
+++ b/Alternatives/Alternative4_01/transit_fare/farematrix_alt4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="0" windowWidth="25600" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="-100" yWindow="400" windowWidth="21140" windowHeight="15180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="farematrix.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="64">
   <si>
     <t>Dublin/ Pleasanton</t>
   </si>
@@ -259,17 +259,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -599,15 +623,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM65"/>
+  <dimension ref="A1:BM66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="BD16" sqref="BD16"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AW1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A31" sqref="A31"/>
+      <selection pane="topRight" activeCell="BE50" sqref="BE50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="56" max="56" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65">
@@ -8512,7 +8539,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="49" spans="1:54">
+    <row r="49" spans="1:64">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -8676,7 +8703,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="50" spans="1:54">
+    <row r="50" spans="1:64">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -8840,7 +8867,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="51" spans="1:54">
+    <row r="51" spans="1:64">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -9004,7 +9031,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="52" spans="1:54">
+    <row r="52" spans="1:64">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -9168,7 +9195,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="53" spans="1:54">
+    <row r="53" spans="1:64">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -9332,7 +9359,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="54" spans="1:54">
+    <row r="54" spans="1:64">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -9496,58 +9523,2251 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:54">
+    <row r="55" spans="1:64">
       <c r="A55" t="s">
         <v>53</v>
       </c>
+      <c r="B55">
+        <v>304</v>
+      </c>
+      <c r="C55">
+        <v>294</v>
+      </c>
+      <c r="D55">
+        <v>231</v>
+      </c>
+      <c r="E55">
+        <v>308</v>
+      </c>
+      <c r="F55">
+        <v>283</v>
+      </c>
+      <c r="G55">
+        <v>252</v>
+      </c>
+      <c r="H55">
+        <v>231</v>
+      </c>
+      <c r="I55">
+        <v>206</v>
+      </c>
+      <c r="J55">
+        <v>178</v>
+      </c>
+      <c r="K55">
+        <v>147</v>
+      </c>
+      <c r="L55">
+        <v>129</v>
+      </c>
+      <c r="M55">
+        <v>129</v>
+      </c>
+      <c r="N55">
+        <v>206</v>
+      </c>
+      <c r="O55">
+        <v>182</v>
+      </c>
+      <c r="P55">
+        <v>164</v>
+      </c>
+      <c r="Q55">
+        <v>143</v>
+      </c>
+      <c r="R55">
+        <v>136</v>
+      </c>
+      <c r="S55">
+        <v>129</v>
+      </c>
+      <c r="T55">
+        <v>332</v>
+      </c>
+      <c r="U55">
+        <v>297</v>
+      </c>
+      <c r="V55">
+        <v>283</v>
+      </c>
+      <c r="W55">
+        <v>255</v>
+      </c>
+      <c r="X55">
+        <v>245</v>
+      </c>
+      <c r="Y55">
+        <v>220</v>
+      </c>
+      <c r="Z55">
+        <v>178</v>
+      </c>
+      <c r="AA55">
+        <v>129</v>
+      </c>
+      <c r="AB55">
+        <v>129</v>
+      </c>
+      <c r="AC55">
+        <v>129</v>
+      </c>
+      <c r="AD55">
+        <v>258</v>
+      </c>
+      <c r="AE55">
+        <v>129</v>
+      </c>
+      <c r="AF55">
+        <v>217</v>
+      </c>
+      <c r="AG55">
+        <v>217</v>
+      </c>
+      <c r="AH55">
+        <v>217</v>
+      </c>
+      <c r="AI55">
+        <v>217</v>
+      </c>
+      <c r="AJ55">
+        <v>234</v>
+      </c>
+      <c r="AK55">
+        <v>238</v>
+      </c>
+      <c r="AL55">
+        <v>255</v>
+      </c>
+      <c r="AM55">
+        <v>266</v>
+      </c>
+      <c r="AN55">
+        <v>280</v>
+      </c>
+      <c r="AO55">
+        <v>276</v>
+      </c>
+      <c r="AP55">
+        <v>290</v>
+      </c>
+      <c r="AQ55">
+        <v>308</v>
+      </c>
+      <c r="AR55">
+        <v>619</v>
+      </c>
+      <c r="AS55">
+        <v>567</v>
+      </c>
+      <c r="AT55">
+        <v>339</v>
+      </c>
+      <c r="AU55">
+        <v>350</v>
+      </c>
+      <c r="AV55">
+        <v>360</v>
+      </c>
+      <c r="AW55">
+        <v>409</v>
+      </c>
+      <c r="AX55">
+        <v>420</v>
+      </c>
+      <c r="AY55">
+        <v>420</v>
+      </c>
+      <c r="AZ55">
+        <v>434</v>
+      </c>
+      <c r="BA55">
+        <v>325</v>
+      </c>
+      <c r="BB55">
+        <v>329</v>
+      </c>
+      <c r="BC55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:54">
+    <row r="56" spans="1:64">
       <c r="A56" t="s">
         <v>54</v>
       </c>
+      <c r="B56">
+        <f>B57</f>
+        <v>420</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:BA57" si="0">C57</f>
+        <v>409</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>346</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>346</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>311</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="0"/>
+        <v>283</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="0"/>
+        <v>448</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="0"/>
+        <v>413</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="0"/>
+        <v>371</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="0"/>
+        <v>311</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="0"/>
+        <v>259</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="AF56">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="AH56">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="AI56">
+        <f t="shared" si="0"/>
+        <v>387</v>
+      </c>
+      <c r="AJ56">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="AK56">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="AL56">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="AM56">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="AN56">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="AO56">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="AP56">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="AQ56">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="AR56">
+        <f t="shared" si="0"/>
+        <v>602</v>
+      </c>
+      <c r="AS56">
+        <f t="shared" si="0"/>
+        <v>710</v>
+      </c>
+      <c r="AT56">
+        <f t="shared" si="0"/>
+        <v>451</v>
+      </c>
+      <c r="AU56">
+        <f t="shared" si="0"/>
+        <v>462</v>
+      </c>
+      <c r="AV56">
+        <f t="shared" si="0"/>
+        <v>472</v>
+      </c>
+      <c r="AW56">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="AX56">
+        <f t="shared" si="0"/>
+        <v>535</v>
+      </c>
+      <c r="AY56">
+        <f t="shared" si="0"/>
+        <v>535</v>
+      </c>
+      <c r="AZ56">
+        <f t="shared" si="0"/>
+        <v>553</v>
+      </c>
+      <c r="BA56">
+        <f t="shared" si="0"/>
+        <v>437</v>
+      </c>
+      <c r="BB56">
+        <f>BB57</f>
+        <v>311</v>
+      </c>
+      <c r="BC56">
+        <v>231</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:54">
+    <row r="57" spans="1:64">
       <c r="A57" t="s">
         <v>55</v>
       </c>
+      <c r="B57">
+        <f>B58</f>
+        <v>420</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>409</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>346</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>346</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>311</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="0"/>
+        <v>283</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="0"/>
+        <v>448</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="0"/>
+        <v>413</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="0"/>
+        <v>371</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="0"/>
+        <v>311</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="0"/>
+        <v>259</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="AD57">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="AF57">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="AG57">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="AH57">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="AI57">
+        <f t="shared" si="0"/>
+        <v>387</v>
+      </c>
+      <c r="AJ57">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="AK57">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="AL57">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="AM57">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="AN57">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="AO57">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="AP57">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="AQ57">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="AR57">
+        <f t="shared" si="0"/>
+        <v>602</v>
+      </c>
+      <c r="AS57">
+        <f t="shared" si="0"/>
+        <v>710</v>
+      </c>
+      <c r="AT57">
+        <f t="shared" si="0"/>
+        <v>451</v>
+      </c>
+      <c r="AU57">
+        <f t="shared" si="0"/>
+        <v>462</v>
+      </c>
+      <c r="AV57">
+        <f t="shared" si="0"/>
+        <v>472</v>
+      </c>
+      <c r="AW57">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="AX57">
+        <f t="shared" si="0"/>
+        <v>535</v>
+      </c>
+      <c r="AY57">
+        <f t="shared" si="0"/>
+        <v>535</v>
+      </c>
+      <c r="AZ57">
+        <f t="shared" si="0"/>
+        <v>553</v>
+      </c>
+      <c r="BA57">
+        <f t="shared" si="0"/>
+        <v>437</v>
+      </c>
+      <c r="BB57">
+        <f>BB58</f>
+        <v>311</v>
+      </c>
+      <c r="BC57">
+        <v>231</v>
+      </c>
+      <c r="BD57">
+        <v>129</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:54">
+    <row r="58" spans="1:64">
       <c r="A58" t="s">
         <v>56</v>
       </c>
+      <c r="B58">
+        <f>B59</f>
+        <v>420</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C58:BB58" si="1">C59</f>
+        <v>409</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>346</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>399</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>364</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>346</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="1"/>
+        <v>273</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="1"/>
+        <v>322</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="1"/>
+        <v>308</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="1"/>
+        <v>297</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="1"/>
+        <v>273</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="1"/>
+        <v>448</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="1"/>
+        <v>413</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="1"/>
+        <v>399</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="1"/>
+        <v>371</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="1"/>
+        <v>273</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="1"/>
+        <v>259</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="AF58">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="AG58">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="AH58">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="AI58">
+        <f t="shared" si="1"/>
+        <v>387</v>
+      </c>
+      <c r="AJ58">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="AK58">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="AL58">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="AM58">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="AN58">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="AO58">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="AP58">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="AQ58">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="AR58">
+        <f t="shared" si="1"/>
+        <v>602</v>
+      </c>
+      <c r="AS58">
+        <f t="shared" si="1"/>
+        <v>710</v>
+      </c>
+      <c r="AT58">
+        <f t="shared" si="1"/>
+        <v>451</v>
+      </c>
+      <c r="AU58">
+        <f t="shared" si="1"/>
+        <v>462</v>
+      </c>
+      <c r="AV58">
+        <f t="shared" si="1"/>
+        <v>472</v>
+      </c>
+      <c r="AW58">
+        <f t="shared" si="1"/>
+        <v>525</v>
+      </c>
+      <c r="AX58">
+        <f t="shared" si="1"/>
+        <v>535</v>
+      </c>
+      <c r="AY58">
+        <f t="shared" si="1"/>
+        <v>535</v>
+      </c>
+      <c r="AZ58">
+        <f t="shared" si="1"/>
+        <v>553</v>
+      </c>
+      <c r="BA58">
+        <f t="shared" si="1"/>
+        <v>437</v>
+      </c>
+      <c r="BB58">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+      <c r="BC58">
+        <v>231</v>
+      </c>
+      <c r="BD58">
+        <v>129</v>
+      </c>
+      <c r="BE58">
+        <v>129</v>
+      </c>
+      <c r="BF58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:54">
+    <row r="59" spans="1:64">
       <c r="A59" t="s">
         <v>57</v>
       </c>
+      <c r="B59">
+        <f>B60-(B35-B34)</f>
+        <v>420</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ref="C59:L59" si="2">C60-(C35-C34)</f>
+        <v>409</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>346</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>399</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>364</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>346</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="2"/>
+        <v>311</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="M59">
+        <f t="shared" ref="M59" si="3">M60-(M35-M34)</f>
+        <v>245</v>
+      </c>
+      <c r="N59">
+        <f t="shared" ref="N59" si="4">N60-(N35-N34)</f>
+        <v>322</v>
+      </c>
+      <c r="O59">
+        <f t="shared" ref="O59" si="5">O60-(O35-O34)</f>
+        <v>308</v>
+      </c>
+      <c r="P59">
+        <f t="shared" ref="P59" si="6">P60-(P35-P34)</f>
+        <v>297</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" ref="Q59" si="7">Q60-(Q35-Q34)</f>
+        <v>283</v>
+      </c>
+      <c r="R59">
+        <f t="shared" ref="R59" si="8">R60-(R35-R34)</f>
+        <v>280</v>
+      </c>
+      <c r="S59">
+        <f t="shared" ref="S59" si="9">S60-(S35-S34)</f>
+        <v>273</v>
+      </c>
+      <c r="T59">
+        <f t="shared" ref="T59" si="10">T60-(T35-T34)</f>
+        <v>448</v>
+      </c>
+      <c r="U59">
+        <f t="shared" ref="U59:V59" si="11">U60-(U35-U34)</f>
+        <v>413</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="11"/>
+        <v>399</v>
+      </c>
+      <c r="W59">
+        <f t="shared" ref="W59" si="12">W60-(W35-W34)</f>
+        <v>371</v>
+      </c>
+      <c r="X59">
+        <f t="shared" ref="X59" si="13">X60-(X35-X34)</f>
+        <v>360</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" ref="Y59" si="14">Y60-(Y35-Y34)</f>
+        <v>336</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" ref="Z59" si="15">Z60-(Z35-Z34)</f>
+        <v>311</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" ref="AA59" si="16">AA60-(AA35-AA34)</f>
+        <v>273</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" ref="AB59" si="17">AB60-(AB35-AB34)</f>
+        <v>259</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" ref="AC59" si="18">AC60-(AC35-AC34)</f>
+        <v>245</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" ref="AD59" si="19">AD60-(AD35-AD34)</f>
+        <v>245</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" ref="AE59:AF59" si="20">AE60-(AE35-AE34)</f>
+        <v>234</v>
+      </c>
+      <c r="AF59">
+        <f t="shared" si="20"/>
+        <v>129</v>
+      </c>
+      <c r="AG59">
+        <f t="shared" ref="AG59" si="21">AG60-(AG35-AG34)</f>
+        <v>129</v>
+      </c>
+      <c r="AH59">
+        <v>129</v>
+      </c>
+      <c r="AI59">
+        <f t="shared" ref="AI59" si="22">AI60-(AI35-AI34)</f>
+        <v>387</v>
+      </c>
+      <c r="AJ59">
+        <f t="shared" ref="AJ59" si="23">AJ60-(AJ35-AJ34)</f>
+        <v>129</v>
+      </c>
+      <c r="AK59">
+        <f t="shared" ref="AK59" si="24">AK60-(AK35-AK34)</f>
+        <v>129</v>
+      </c>
+      <c r="AL59">
+        <f t="shared" ref="AL59" si="25">AL60-(AL35-AL34)</f>
+        <v>129</v>
+      </c>
+      <c r="AM59">
+        <f t="shared" ref="AM59" si="26">AM60-(AM35-AM34)</f>
+        <v>129</v>
+      </c>
+      <c r="AN59">
+        <f t="shared" ref="AN59" si="27">AN60-(AN35-AN34)</f>
+        <v>206</v>
+      </c>
+      <c r="AO59">
+        <f t="shared" ref="AO59" si="28">AO60-(AO35-AO34)</f>
+        <v>234</v>
+      </c>
+      <c r="AP59">
+        <f t="shared" ref="AP59" si="29">AP60-(AP35-AP34)</f>
+        <v>252</v>
+      </c>
+      <c r="AQ59">
+        <f t="shared" ref="AQ59" si="30">AQ60-(AQ35-AQ34)</f>
+        <v>280</v>
+      </c>
+      <c r="AR59">
+        <f t="shared" ref="AR59" si="31">AR60-(AR35-AR34)</f>
+        <v>602</v>
+      </c>
+      <c r="AS59">
+        <f t="shared" ref="AS59" si="32">AS60-(AS35-AS34)</f>
+        <v>710</v>
+      </c>
+      <c r="AT59">
+        <f t="shared" ref="AT59" si="33">AT60-(AT35-AT34)</f>
+        <v>451</v>
+      </c>
+      <c r="AU59">
+        <f t="shared" ref="AU59" si="34">AU60-(AU35-AU34)</f>
+        <v>462</v>
+      </c>
+      <c r="AV59">
+        <f t="shared" ref="AV59" si="35">AV60-(AV35-AV34)</f>
+        <v>472</v>
+      </c>
+      <c r="AW59">
+        <f t="shared" ref="AW59" si="36">AW60-(AW35-AW34)</f>
+        <v>525</v>
+      </c>
+      <c r="AX59">
+        <f t="shared" ref="AX59" si="37">AX60-(AX35-AX34)</f>
+        <v>535</v>
+      </c>
+      <c r="AY59">
+        <f t="shared" ref="AY59" si="38">AY60-(AY35-AY34)</f>
+        <v>535</v>
+      </c>
+      <c r="AZ59">
+        <f t="shared" ref="AZ59" si="39">AZ60-(AZ35-AZ34)</f>
+        <v>553</v>
+      </c>
+      <c r="BA59">
+        <f t="shared" ref="BA59" si="40">BA60-(BA35-BA34)</f>
+        <v>437</v>
+      </c>
+      <c r="BB59">
+        <f t="shared" ref="BB59" si="41">BB60-(BB35-BB34)</f>
+        <v>311</v>
+      </c>
+      <c r="BC59">
+        <v>231</v>
+      </c>
+      <c r="BD59">
+        <v>129</v>
+      </c>
+      <c r="BE59">
+        <v>129</v>
+      </c>
+      <c r="BF59">
+        <v>129</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:54">
+    <row r="60" spans="1:64">
       <c r="A60" t="s">
         <v>58</v>
       </c>
+      <c r="B60">
+        <v>420</v>
+      </c>
+      <c r="C60">
+        <v>409</v>
+      </c>
+      <c r="D60">
+        <v>346</v>
+      </c>
+      <c r="E60">
+        <v>420</v>
+      </c>
+      <c r="F60">
+        <v>399</v>
+      </c>
+      <c r="G60">
+        <v>364</v>
+      </c>
+      <c r="H60">
+        <v>346</v>
+      </c>
+      <c r="I60">
+        <v>325</v>
+      </c>
+      <c r="J60">
+        <v>311</v>
+      </c>
+      <c r="K60">
+        <v>290</v>
+      </c>
+      <c r="L60">
+        <v>273</v>
+      </c>
+      <c r="M60">
+        <v>245</v>
+      </c>
+      <c r="N60">
+        <v>322</v>
+      </c>
+      <c r="O60">
+        <v>308</v>
+      </c>
+      <c r="P60">
+        <v>297</v>
+      </c>
+      <c r="Q60">
+        <v>283</v>
+      </c>
+      <c r="R60">
+        <v>280</v>
+      </c>
+      <c r="S60">
+        <v>273</v>
+      </c>
+      <c r="T60">
+        <v>448</v>
+      </c>
+      <c r="U60">
+        <v>413</v>
+      </c>
+      <c r="V60">
+        <v>399</v>
+      </c>
+      <c r="W60">
+        <v>371</v>
+      </c>
+      <c r="X60">
+        <v>360</v>
+      </c>
+      <c r="Y60">
+        <v>336</v>
+      </c>
+      <c r="Z60">
+        <v>311</v>
+      </c>
+      <c r="AA60">
+        <v>273</v>
+      </c>
+      <c r="AB60">
+        <v>259</v>
+      </c>
+      <c r="AC60">
+        <v>245</v>
+      </c>
+      <c r="AD60">
+        <v>245</v>
+      </c>
+      <c r="AE60">
+        <v>234</v>
+      </c>
+      <c r="AF60">
+        <v>129</v>
+      </c>
+      <c r="AG60">
+        <v>129</v>
+      </c>
+      <c r="AH60">
+        <v>129</v>
+      </c>
+      <c r="AI60">
+        <v>258</v>
+      </c>
+      <c r="AJ60">
+        <v>129</v>
+      </c>
+      <c r="AK60">
+        <v>129</v>
+      </c>
+      <c r="AL60">
+        <v>129</v>
+      </c>
+      <c r="AM60">
+        <v>129</v>
+      </c>
+      <c r="AN60">
+        <v>206</v>
+      </c>
+      <c r="AO60">
+        <v>234</v>
+      </c>
+      <c r="AP60">
+        <v>252</v>
+      </c>
+      <c r="AQ60">
+        <v>280</v>
+      </c>
+      <c r="AR60">
+        <v>602</v>
+      </c>
+      <c r="AS60">
+        <v>710</v>
+      </c>
+      <c r="AT60">
+        <v>451</v>
+      </c>
+      <c r="AU60">
+        <v>462</v>
+      </c>
+      <c r="AV60">
+        <v>472</v>
+      </c>
+      <c r="AW60">
+        <v>525</v>
+      </c>
+      <c r="AX60">
+        <v>535</v>
+      </c>
+      <c r="AY60">
+        <v>535</v>
+      </c>
+      <c r="AZ60">
+        <v>553</v>
+      </c>
+      <c r="BA60">
+        <v>437</v>
+      </c>
+      <c r="BB60">
+        <v>311</v>
+      </c>
+      <c r="BC60">
+        <v>231</v>
+      </c>
+      <c r="BD60">
+        <v>129</v>
+      </c>
+      <c r="BE60">
+        <v>129</v>
+      </c>
+      <c r="BF60">
+        <v>129</v>
+      </c>
+      <c r="BG60">
+        <v>129</v>
+      </c>
+      <c r="BH60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:54">
+    <row r="61" spans="1:64">
       <c r="A61" t="s">
         <v>59</v>
       </c>
+      <c r="B61">
+        <v>420</v>
+      </c>
+      <c r="C61">
+        <v>409</v>
+      </c>
+      <c r="D61">
+        <v>346</v>
+      </c>
+      <c r="E61">
+        <v>420</v>
+      </c>
+      <c r="F61">
+        <v>399</v>
+      </c>
+      <c r="G61">
+        <v>364</v>
+      </c>
+      <c r="H61">
+        <v>346</v>
+      </c>
+      <c r="I61">
+        <v>325</v>
+      </c>
+      <c r="J61">
+        <v>311</v>
+      </c>
+      <c r="K61">
+        <v>290</v>
+      </c>
+      <c r="L61">
+        <v>273</v>
+      </c>
+      <c r="M61">
+        <v>245</v>
+      </c>
+      <c r="N61">
+        <v>322</v>
+      </c>
+      <c r="O61">
+        <v>308</v>
+      </c>
+      <c r="P61">
+        <v>297</v>
+      </c>
+      <c r="Q61">
+        <v>283</v>
+      </c>
+      <c r="R61">
+        <v>280</v>
+      </c>
+      <c r="S61">
+        <v>273</v>
+      </c>
+      <c r="T61">
+        <v>448</v>
+      </c>
+      <c r="U61">
+        <v>413</v>
+      </c>
+      <c r="V61">
+        <v>399</v>
+      </c>
+      <c r="W61">
+        <v>371</v>
+      </c>
+      <c r="X61">
+        <v>360</v>
+      </c>
+      <c r="Y61">
+        <v>336</v>
+      </c>
+      <c r="Z61">
+        <v>311</v>
+      </c>
+      <c r="AA61">
+        <v>273</v>
+      </c>
+      <c r="AB61">
+        <v>259</v>
+      </c>
+      <c r="AC61">
+        <v>245</v>
+      </c>
+      <c r="AD61">
+        <v>245</v>
+      </c>
+      <c r="AE61">
+        <v>234</v>
+      </c>
+      <c r="AF61">
+        <v>129</v>
+      </c>
+      <c r="AG61">
+        <v>129</v>
+      </c>
+      <c r="AH61">
+        <v>129</v>
+      </c>
+      <c r="AI61">
+        <v>258</v>
+      </c>
+      <c r="AJ61">
+        <v>129</v>
+      </c>
+      <c r="AK61">
+        <v>129</v>
+      </c>
+      <c r="AL61">
+        <v>129</v>
+      </c>
+      <c r="AM61">
+        <v>129</v>
+      </c>
+      <c r="AN61">
+        <v>206</v>
+      </c>
+      <c r="AO61">
+        <v>234</v>
+      </c>
+      <c r="AP61">
+        <v>252</v>
+      </c>
+      <c r="AQ61">
+        <v>280</v>
+      </c>
+      <c r="AR61">
+        <v>602</v>
+      </c>
+      <c r="AS61">
+        <v>710</v>
+      </c>
+      <c r="AT61">
+        <v>451</v>
+      </c>
+      <c r="AU61">
+        <v>462</v>
+      </c>
+      <c r="AV61">
+        <v>472</v>
+      </c>
+      <c r="AW61">
+        <v>525</v>
+      </c>
+      <c r="AX61">
+        <v>535</v>
+      </c>
+      <c r="AY61">
+        <v>535</v>
+      </c>
+      <c r="AZ61">
+        <v>553</v>
+      </c>
+      <c r="BA61">
+        <v>437</v>
+      </c>
+      <c r="BB61">
+        <v>311</v>
+      </c>
+      <c r="BC61">
+        <v>231</v>
+      </c>
+      <c r="BD61">
+        <v>129</v>
+      </c>
+      <c r="BE61">
+        <v>129</v>
+      </c>
+      <c r="BF61">
+        <v>129</v>
+      </c>
+      <c r="BG61">
+        <v>129</v>
+      </c>
+      <c r="BH61">
+        <v>129</v>
+      </c>
+      <c r="BI61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:54">
+    <row r="62" spans="1:64">
       <c r="A62" t="s">
         <v>60</v>
       </c>
+      <c r="B62">
+        <v>297</v>
+      </c>
+      <c r="C62">
+        <v>287</v>
+      </c>
+      <c r="D62">
+        <v>224</v>
+      </c>
+      <c r="E62">
+        <v>301</v>
+      </c>
+      <c r="F62">
+        <v>276</v>
+      </c>
+      <c r="G62">
+        <v>245</v>
+      </c>
+      <c r="H62">
+        <v>224</v>
+      </c>
+      <c r="I62">
+        <v>192</v>
+      </c>
+      <c r="J62">
+        <v>168</v>
+      </c>
+      <c r="K62">
+        <v>129</v>
+      </c>
+      <c r="L62">
+        <v>129</v>
+      </c>
+      <c r="M62">
+        <v>129</v>
+      </c>
+      <c r="N62">
+        <v>196</v>
+      </c>
+      <c r="O62">
+        <v>171</v>
+      </c>
+      <c r="P62">
+        <v>154</v>
+      </c>
+      <c r="Q62">
+        <v>133</v>
+      </c>
+      <c r="R62">
+        <v>129</v>
+      </c>
+      <c r="S62">
+        <v>129</v>
+      </c>
+      <c r="T62">
+        <v>322</v>
+      </c>
+      <c r="U62">
+        <v>287</v>
+      </c>
+      <c r="V62">
+        <v>273</v>
+      </c>
+      <c r="W62">
+        <v>248</v>
+      </c>
+      <c r="X62">
+        <v>238</v>
+      </c>
+      <c r="Y62">
+        <v>206</v>
+      </c>
+      <c r="Z62">
+        <v>164</v>
+      </c>
+      <c r="AA62">
+        <v>129</v>
+      </c>
+      <c r="AB62">
+        <v>129</v>
+      </c>
+      <c r="AC62">
+        <v>129</v>
+      </c>
+      <c r="AD62">
+        <v>258</v>
+      </c>
+      <c r="AE62">
+        <v>258</v>
+      </c>
+      <c r="AF62">
+        <v>231</v>
+      </c>
+      <c r="AG62">
+        <v>231</v>
+      </c>
+      <c r="AH62">
+        <v>231</v>
+      </c>
+      <c r="AI62">
+        <v>231</v>
+      </c>
+      <c r="AJ62">
+        <v>245</v>
+      </c>
+      <c r="AK62">
+        <v>252</v>
+      </c>
+      <c r="AL62">
+        <v>269</v>
+      </c>
+      <c r="AM62">
+        <v>276</v>
+      </c>
+      <c r="AN62">
+        <v>287</v>
+      </c>
+      <c r="AO62">
+        <v>283</v>
+      </c>
+      <c r="AP62">
+        <v>297</v>
+      </c>
+      <c r="AQ62">
+        <v>315</v>
+      </c>
+      <c r="AR62">
+        <v>626</v>
+      </c>
+      <c r="AS62">
+        <v>549</v>
+      </c>
+      <c r="AT62">
+        <v>332</v>
+      </c>
+      <c r="AU62">
+        <v>343</v>
+      </c>
+      <c r="AV62">
+        <v>353</v>
+      </c>
+      <c r="AW62">
+        <v>402</v>
+      </c>
+      <c r="AX62">
+        <v>413</v>
+      </c>
+      <c r="AY62">
+        <v>413</v>
+      </c>
+      <c r="AZ62">
+        <v>427</v>
+      </c>
+      <c r="BA62">
+        <v>318</v>
+      </c>
+      <c r="BB62">
+        <v>336</v>
+      </c>
+      <c r="BC62">
+        <v>129</v>
+      </c>
+      <c r="BD62">
+        <v>231</v>
+      </c>
+      <c r="BE62">
+        <v>231</v>
+      </c>
+      <c r="BF62">
+        <v>231</v>
+      </c>
+      <c r="BG62">
+        <v>231</v>
+      </c>
+      <c r="BH62">
+        <v>245</v>
+      </c>
+      <c r="BI62">
+        <v>245</v>
+      </c>
+      <c r="BJ62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:54">
+    <row r="63" spans="1:64">
       <c r="A63" t="s">
         <v>61</v>
       </c>
+      <c r="B63">
+        <v>297</v>
+      </c>
+      <c r="C63">
+        <v>287</v>
+      </c>
+      <c r="D63">
+        <v>224</v>
+      </c>
+      <c r="E63">
+        <v>301</v>
+      </c>
+      <c r="F63">
+        <v>276</v>
+      </c>
+      <c r="G63">
+        <v>245</v>
+      </c>
+      <c r="H63">
+        <v>224</v>
+      </c>
+      <c r="I63">
+        <v>192</v>
+      </c>
+      <c r="J63">
+        <v>168</v>
+      </c>
+      <c r="K63">
+        <v>129</v>
+      </c>
+      <c r="L63">
+        <v>129</v>
+      </c>
+      <c r="M63">
+        <v>129</v>
+      </c>
+      <c r="N63">
+        <v>196</v>
+      </c>
+      <c r="O63">
+        <v>171</v>
+      </c>
+      <c r="P63">
+        <v>154</v>
+      </c>
+      <c r="Q63">
+        <v>133</v>
+      </c>
+      <c r="R63">
+        <v>129</v>
+      </c>
+      <c r="S63">
+        <v>129</v>
+      </c>
+      <c r="T63">
+        <v>322</v>
+      </c>
+      <c r="U63">
+        <v>287</v>
+      </c>
+      <c r="V63">
+        <v>273</v>
+      </c>
+      <c r="W63">
+        <v>248</v>
+      </c>
+      <c r="X63">
+        <v>238</v>
+      </c>
+      <c r="Y63">
+        <v>206</v>
+      </c>
+      <c r="Z63">
+        <v>164</v>
+      </c>
+      <c r="AA63">
+        <v>129</v>
+      </c>
+      <c r="AB63">
+        <v>129</v>
+      </c>
+      <c r="AC63">
+        <v>129</v>
+      </c>
+      <c r="AD63">
+        <v>129</v>
+      </c>
+      <c r="AE63">
+        <v>129</v>
+      </c>
+      <c r="AF63">
+        <v>231</v>
+      </c>
+      <c r="AG63">
+        <v>231</v>
+      </c>
+      <c r="AH63">
+        <v>231</v>
+      </c>
+      <c r="AI63">
+        <v>231</v>
+      </c>
+      <c r="AJ63">
+        <v>245</v>
+      </c>
+      <c r="AK63">
+        <v>252</v>
+      </c>
+      <c r="AL63">
+        <v>269</v>
+      </c>
+      <c r="AM63">
+        <v>276</v>
+      </c>
+      <c r="AN63">
+        <v>287</v>
+      </c>
+      <c r="AO63">
+        <v>283</v>
+      </c>
+      <c r="AP63">
+        <v>297</v>
+      </c>
+      <c r="AQ63">
+        <v>315</v>
+      </c>
+      <c r="AR63">
+        <v>626</v>
+      </c>
+      <c r="AS63">
+        <v>549</v>
+      </c>
+      <c r="AT63">
+        <v>332</v>
+      </c>
+      <c r="AU63">
+        <v>343</v>
+      </c>
+      <c r="AV63">
+        <v>353</v>
+      </c>
+      <c r="AW63">
+        <v>402</v>
+      </c>
+      <c r="AX63">
+        <v>413</v>
+      </c>
+      <c r="AY63">
+        <v>413</v>
+      </c>
+      <c r="AZ63">
+        <v>427</v>
+      </c>
+      <c r="BA63">
+        <v>318</v>
+      </c>
+      <c r="BB63">
+        <v>336</v>
+      </c>
+      <c r="BC63">
+        <v>129</v>
+      </c>
+      <c r="BD63">
+        <v>231</v>
+      </c>
+      <c r="BE63">
+        <v>231</v>
+      </c>
+      <c r="BF63">
+        <v>231</v>
+      </c>
+      <c r="BG63">
+        <v>231</v>
+      </c>
+      <c r="BH63">
+        <v>245</v>
+      </c>
+      <c r="BI63">
+        <v>245</v>
+      </c>
+      <c r="BJ63">
+        <v>129</v>
+      </c>
+      <c r="BK63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:54">
+    <row r="64" spans="1:64">
       <c r="A64" t="s">
         <v>62</v>
       </c>
+      <c r="B64">
+        <v>297</v>
+      </c>
+      <c r="C64">
+        <v>287</v>
+      </c>
+      <c r="D64">
+        <v>224</v>
+      </c>
+      <c r="E64">
+        <v>301</v>
+      </c>
+      <c r="F64">
+        <v>276</v>
+      </c>
+      <c r="G64">
+        <v>245</v>
+      </c>
+      <c r="H64">
+        <v>224</v>
+      </c>
+      <c r="I64">
+        <v>192</v>
+      </c>
+      <c r="J64">
+        <v>168</v>
+      </c>
+      <c r="K64">
+        <v>129</v>
+      </c>
+      <c r="L64">
+        <v>129</v>
+      </c>
+      <c r="M64">
+        <v>129</v>
+      </c>
+      <c r="N64">
+        <v>196</v>
+      </c>
+      <c r="O64">
+        <v>171</v>
+      </c>
+      <c r="P64">
+        <v>154</v>
+      </c>
+      <c r="Q64">
+        <v>133</v>
+      </c>
+      <c r="R64">
+        <v>129</v>
+      </c>
+      <c r="S64">
+        <v>129</v>
+      </c>
+      <c r="T64">
+        <v>322</v>
+      </c>
+      <c r="U64">
+        <v>287</v>
+      </c>
+      <c r="V64">
+        <v>273</v>
+      </c>
+      <c r="W64">
+        <v>248</v>
+      </c>
+      <c r="X64">
+        <v>238</v>
+      </c>
+      <c r="Y64">
+        <v>206</v>
+      </c>
+      <c r="Z64">
+        <v>164</v>
+      </c>
+      <c r="AA64">
+        <v>129</v>
+      </c>
+      <c r="AB64">
+        <v>129</v>
+      </c>
+      <c r="AC64">
+        <v>129</v>
+      </c>
+      <c r="AD64">
+        <v>258</v>
+      </c>
+      <c r="AE64">
+        <v>129</v>
+      </c>
+      <c r="AF64">
+        <v>231</v>
+      </c>
+      <c r="AG64">
+        <v>231</v>
+      </c>
+      <c r="AH64">
+        <v>231</v>
+      </c>
+      <c r="AI64">
+        <v>231</v>
+      </c>
+      <c r="AJ64">
+        <v>245</v>
+      </c>
+      <c r="AK64">
+        <v>252</v>
+      </c>
+      <c r="AL64">
+        <v>269</v>
+      </c>
+      <c r="AM64">
+        <v>276</v>
+      </c>
+      <c r="AN64">
+        <v>287</v>
+      </c>
+      <c r="AO64">
+        <v>283</v>
+      </c>
+      <c r="AP64">
+        <v>297</v>
+      </c>
+      <c r="AQ64">
+        <v>315</v>
+      </c>
+      <c r="AR64">
+        <v>626</v>
+      </c>
+      <c r="AS64">
+        <v>549</v>
+      </c>
+      <c r="AT64">
+        <v>332</v>
+      </c>
+      <c r="AU64">
+        <v>343</v>
+      </c>
+      <c r="AV64">
+        <v>353</v>
+      </c>
+      <c r="AW64">
+        <v>402</v>
+      </c>
+      <c r="AX64">
+        <v>413</v>
+      </c>
+      <c r="AY64">
+        <v>413</v>
+      </c>
+      <c r="AZ64">
+        <v>427</v>
+      </c>
+      <c r="BA64">
+        <v>318</v>
+      </c>
+      <c r="BB64">
+        <v>336</v>
+      </c>
+      <c r="BC64">
+        <v>129</v>
+      </c>
+      <c r="BD64">
+        <v>231</v>
+      </c>
+      <c r="BE64">
+        <v>231</v>
+      </c>
+      <c r="BF64">
+        <v>231</v>
+      </c>
+      <c r="BG64">
+        <v>231</v>
+      </c>
+      <c r="BH64">
+        <v>245</v>
+      </c>
+      <c r="BI64">
+        <v>245</v>
+      </c>
+      <c r="BJ64">
+        <v>129</v>
+      </c>
+      <c r="BK64">
+        <v>129</v>
+      </c>
+      <c r="BL64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:65">
       <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>297</v>
+      </c>
+      <c r="C65">
+        <v>287</v>
+      </c>
+      <c r="D65">
+        <v>224</v>
+      </c>
+      <c r="E65">
+        <v>301</v>
+      </c>
+      <c r="F65">
+        <v>276</v>
+      </c>
+      <c r="G65">
+        <v>245</v>
+      </c>
+      <c r="H65">
+        <v>224</v>
+      </c>
+      <c r="I65">
+        <v>192</v>
+      </c>
+      <c r="J65">
+        <v>168</v>
+      </c>
+      <c r="K65">
+        <v>129</v>
+      </c>
+      <c r="L65">
+        <v>129</v>
+      </c>
+      <c r="M65">
+        <v>129</v>
+      </c>
+      <c r="N65">
+        <v>196</v>
+      </c>
+      <c r="O65">
+        <v>171</v>
+      </c>
+      <c r="P65">
+        <v>154</v>
+      </c>
+      <c r="Q65">
+        <v>133</v>
+      </c>
+      <c r="R65">
+        <v>129</v>
+      </c>
+      <c r="S65">
+        <v>129</v>
+      </c>
+      <c r="T65">
+        <v>322</v>
+      </c>
+      <c r="U65">
+        <v>287</v>
+      </c>
+      <c r="V65">
+        <v>273</v>
+      </c>
+      <c r="W65">
+        <v>248</v>
+      </c>
+      <c r="X65">
+        <v>238</v>
+      </c>
+      <c r="Y65">
+        <v>206</v>
+      </c>
+      <c r="Z65">
+        <v>164</v>
+      </c>
+      <c r="AA65">
+        <v>129</v>
+      </c>
+      <c r="AB65">
+        <v>129</v>
+      </c>
+      <c r="AC65">
+        <v>129</v>
+      </c>
+      <c r="AD65">
+        <v>129</v>
+      </c>
+      <c r="AE65">
+        <v>258</v>
+      </c>
+      <c r="AF65">
+        <v>231</v>
+      </c>
+      <c r="AG65">
+        <v>231</v>
+      </c>
+      <c r="AH65">
+        <v>231</v>
+      </c>
+      <c r="AI65">
+        <v>231</v>
+      </c>
+      <c r="AJ65">
+        <v>245</v>
+      </c>
+      <c r="AK65">
+        <v>252</v>
+      </c>
+      <c r="AL65">
+        <v>269</v>
+      </c>
+      <c r="AM65">
+        <v>276</v>
+      </c>
+      <c r="AN65">
+        <v>287</v>
+      </c>
+      <c r="AO65">
+        <v>283</v>
+      </c>
+      <c r="AP65">
+        <v>297</v>
+      </c>
+      <c r="AQ65">
+        <v>315</v>
+      </c>
+      <c r="AR65">
+        <v>626</v>
+      </c>
+      <c r="AS65">
+        <v>549</v>
+      </c>
+      <c r="AT65">
+        <v>332</v>
+      </c>
+      <c r="AU65">
+        <v>343</v>
+      </c>
+      <c r="AV65">
+        <v>353</v>
+      </c>
+      <c r="AW65">
+        <v>402</v>
+      </c>
+      <c r="AX65">
+        <v>413</v>
+      </c>
+      <c r="AY65">
+        <v>413</v>
+      </c>
+      <c r="AZ65">
+        <v>427</v>
+      </c>
+      <c r="BA65">
+        <v>318</v>
+      </c>
+      <c r="BB65">
+        <v>336</v>
+      </c>
+      <c r="BC65">
+        <v>129</v>
+      </c>
+      <c r="BD65">
+        <v>231</v>
+      </c>
+      <c r="BE65">
+        <v>231</v>
+      </c>
+      <c r="BF65">
+        <v>231</v>
+      </c>
+      <c r="BG65">
+        <v>231</v>
+      </c>
+      <c r="BH65">
+        <v>245</v>
+      </c>
+      <c r="BI65">
+        <v>245</v>
+      </c>
+      <c r="BJ65">
+        <v>129</v>
+      </c>
+      <c r="BK65">
+        <v>129</v>
+      </c>
+      <c r="BL65">
+        <v>129</v>
+      </c>
+      <c r="BM65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:65">
+      <c r="BC66" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD66" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE66" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF66" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG66" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH66" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI66" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ66" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK66" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL66" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM66" t="s">
         <v>63</v>
       </c>
     </row>

--- a/Alternatives/Alternative4_01/transit_fare/farematrix_alt4.xlsx
+++ b/Alternatives/Alternative4_01/transit_fare/farematrix_alt4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="400" windowWidth="21140" windowHeight="15180" tabRatio="500"/>
+    <workbookView xWindow="-160" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="farematrix.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
   <si>
     <t>Dublin/ Pleasanton</t>
   </si>
@@ -242,12 +242,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -276,8 +282,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -623,17 +630,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM66"/>
+  <dimension ref="A1:BM65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AW1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
       <selection activeCell="A31" sqref="A31"/>
-      <selection pane="topRight" activeCell="BE50" sqref="BE50"/>
+      <selection pane="topRight" activeCell="BJ51" sqref="BJ51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="30" max="31" width="10.83203125" style="1"/>
     <col min="56" max="56" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -722,10 +730,10 @@
       <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AF1" t="s">
@@ -919,10 +927,10 @@
       <c r="AC2">
         <v>297</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="1">
         <v>297</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="1">
         <v>304</v>
       </c>
       <c r="AF2">
@@ -1083,10 +1091,10 @@
       <c r="AC3">
         <v>287</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="1">
         <v>287</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="1">
         <v>294</v>
       </c>
       <c r="AF3">
@@ -1247,10 +1255,10 @@
       <c r="AC4">
         <v>224</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="1">
         <v>224</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="1">
         <v>231</v>
       </c>
       <c r="AF4">
@@ -1411,10 +1419,10 @@
       <c r="AC5">
         <v>301</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="1">
         <v>301</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="1">
         <v>308</v>
       </c>
       <c r="AF5">
@@ -1575,10 +1583,10 @@
       <c r="AC6">
         <v>276</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="1">
         <v>276</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="1">
         <v>283</v>
       </c>
       <c r="AF6">
@@ -1739,10 +1747,10 @@
       <c r="AC7">
         <v>245</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="1">
         <v>245</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="1">
         <v>252</v>
       </c>
       <c r="AF7">
@@ -1903,10 +1911,10 @@
       <c r="AC8">
         <v>224</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="1">
         <v>224</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="1">
         <v>231</v>
       </c>
       <c r="AF8">
@@ -2067,10 +2075,10 @@
       <c r="AC9">
         <v>192</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="1">
         <v>192</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="1">
         <v>206</v>
       </c>
       <c r="AF9">
@@ -2231,10 +2239,10 @@
       <c r="AC10">
         <v>168</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="1">
         <v>168</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="1">
         <v>178</v>
       </c>
       <c r="AF10">
@@ -2395,10 +2403,10 @@
       <c r="AC11">
         <v>129</v>
       </c>
-      <c r="AD11">
-        <v>129</v>
-      </c>
-      <c r="AE11">
+      <c r="AD11" s="1">
+        <v>129</v>
+      </c>
+      <c r="AE11" s="1">
         <v>147</v>
       </c>
       <c r="AF11">
@@ -2559,10 +2567,10 @@
       <c r="AC12">
         <v>129</v>
       </c>
-      <c r="AD12">
-        <v>129</v>
-      </c>
-      <c r="AE12">
+      <c r="AD12" s="1">
+        <v>129</v>
+      </c>
+      <c r="AE12" s="1">
         <v>129</v>
       </c>
       <c r="AF12">
@@ -2723,10 +2731,10 @@
       <c r="AC13">
         <v>129</v>
       </c>
-      <c r="AD13">
-        <v>129</v>
-      </c>
-      <c r="AE13">
+      <c r="AD13" s="1">
+        <v>129</v>
+      </c>
+      <c r="AE13" s="1">
         <v>129</v>
       </c>
       <c r="AF13">
@@ -2887,10 +2895,10 @@
       <c r="AC14">
         <v>196</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="1">
         <v>196</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" s="1">
         <v>206</v>
       </c>
       <c r="AF14">
@@ -3051,10 +3059,10 @@
       <c r="AC15">
         <v>171</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="1">
         <v>171</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="1">
         <v>182</v>
       </c>
       <c r="AF15">
@@ -3215,10 +3223,10 @@
       <c r="AC16">
         <v>154</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="1">
         <v>154</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" s="1">
         <v>164</v>
       </c>
       <c r="AF16">
@@ -3379,10 +3387,10 @@
       <c r="AC17">
         <v>133</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="1">
         <v>133</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" s="1">
         <v>143</v>
       </c>
       <c r="AF17">
@@ -3543,10 +3551,10 @@
       <c r="AC18">
         <v>129</v>
       </c>
-      <c r="AD18">
-        <v>129</v>
-      </c>
-      <c r="AE18">
+      <c r="AD18" s="1">
+        <v>129</v>
+      </c>
+      <c r="AE18" s="1">
         <v>136</v>
       </c>
       <c r="AF18">
@@ -3707,10 +3715,10 @@
       <c r="AC19">
         <v>129</v>
       </c>
-      <c r="AD19">
-        <v>129</v>
-      </c>
-      <c r="AE19">
+      <c r="AD19" s="1">
+        <v>129</v>
+      </c>
+      <c r="AE19" s="1">
         <v>129</v>
       </c>
       <c r="AF19">
@@ -3871,10 +3879,10 @@
       <c r="AC20">
         <v>322</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="1">
         <v>322</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" s="1">
         <v>332</v>
       </c>
       <c r="AF20">
@@ -4035,10 +4043,10 @@
       <c r="AC21">
         <v>287</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="1">
         <v>287</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="1">
         <v>297</v>
       </c>
       <c r="AF21">
@@ -4199,10 +4207,10 @@
       <c r="AC22">
         <v>273</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="1">
         <v>273</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="1">
         <v>283</v>
       </c>
       <c r="AF22">
@@ -4363,10 +4371,10 @@
       <c r="AC23">
         <v>248</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" s="1">
         <v>248</v>
       </c>
-      <c r="AE23">
+      <c r="AE23" s="1">
         <v>255</v>
       </c>
       <c r="AF23">
@@ -4527,10 +4535,10 @@
       <c r="AC24">
         <v>238</v>
       </c>
-      <c r="AD24">
+      <c r="AD24" s="1">
         <v>238</v>
       </c>
-      <c r="AE24">
+      <c r="AE24" s="1">
         <v>245</v>
       </c>
       <c r="AF24">
@@ -4691,10 +4699,10 @@
       <c r="AC25">
         <v>206</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" s="1">
         <v>206</v>
       </c>
-      <c r="AE25">
+      <c r="AE25" s="1">
         <v>220</v>
       </c>
       <c r="AF25">
@@ -4855,10 +4863,10 @@
       <c r="AC26">
         <v>164</v>
       </c>
-      <c r="AD26">
+      <c r="AD26" s="1">
         <v>164</v>
       </c>
-      <c r="AE26">
+      <c r="AE26" s="1">
         <v>178</v>
       </c>
       <c r="AF26">
@@ -5019,10 +5027,10 @@
       <c r="AC27">
         <v>129</v>
       </c>
-      <c r="AD27">
-        <v>129</v>
-      </c>
-      <c r="AE27">
+      <c r="AD27" s="1">
+        <v>129</v>
+      </c>
+      <c r="AE27" s="1">
         <v>129</v>
       </c>
       <c r="AF27">
@@ -5183,10 +5191,10 @@
       <c r="AC28">
         <v>129</v>
       </c>
-      <c r="AD28">
-        <v>129</v>
-      </c>
-      <c r="AE28">
+      <c r="AD28" s="1">
+        <v>129</v>
+      </c>
+      <c r="AE28" s="1">
         <v>129</v>
       </c>
       <c r="AF28">
@@ -5347,10 +5355,10 @@
       <c r="AC29">
         <v>0</v>
       </c>
-      <c r="AD29">
-        <v>129</v>
-      </c>
-      <c r="AE29">
+      <c r="AD29" s="1">
+        <v>129</v>
+      </c>
+      <c r="AE29" s="1">
         <v>129</v>
       </c>
       <c r="AF29">
@@ -5511,10 +5519,10 @@
       <c r="AC30">
         <v>129</v>
       </c>
-      <c r="AD30">
+      <c r="AD30" s="1">
         <v>0</v>
       </c>
-      <c r="AE30">
+      <c r="AE30" s="1">
         <v>129</v>
       </c>
       <c r="AF30">
@@ -5675,10 +5683,10 @@
       <c r="AC31">
         <v>129</v>
       </c>
-      <c r="AD31">
-        <v>129</v>
-      </c>
-      <c r="AE31">
+      <c r="AD31" s="1">
+        <v>129</v>
+      </c>
+      <c r="AE31" s="1">
         <v>0</v>
       </c>
       <c r="AF31">
@@ -5839,10 +5847,10 @@
       <c r="AC32">
         <v>231</v>
       </c>
-      <c r="AD32">
+      <c r="AD32" s="1">
         <v>231</v>
       </c>
-      <c r="AE32">
+      <c r="AE32" s="1">
         <v>217</v>
       </c>
       <c r="AF32">
@@ -6003,10 +6011,10 @@
       <c r="AC33">
         <v>231</v>
       </c>
-      <c r="AD33">
+      <c r="AD33" s="1">
         <v>231</v>
       </c>
-      <c r="AE33">
+      <c r="AE33" s="1">
         <v>217</v>
       </c>
       <c r="AF33">
@@ -6167,10 +6175,10 @@
       <c r="AC34">
         <v>231</v>
       </c>
-      <c r="AD34">
+      <c r="AD34" s="1">
         <v>231</v>
       </c>
-      <c r="AE34">
+      <c r="AE34" s="1">
         <v>217</v>
       </c>
       <c r="AF34">
@@ -6331,10 +6339,10 @@
       <c r="AC35">
         <v>231</v>
       </c>
-      <c r="AD35">
+      <c r="AD35" s="1">
         <v>231</v>
       </c>
-      <c r="AE35">
+      <c r="AE35" s="1">
         <v>217</v>
       </c>
       <c r="AF35">
@@ -6495,10 +6503,10 @@
       <c r="AC36">
         <v>245</v>
       </c>
-      <c r="AD36">
+      <c r="AD36" s="1">
         <v>245</v>
       </c>
-      <c r="AE36">
+      <c r="AE36" s="1">
         <v>234</v>
       </c>
       <c r="AF36">
@@ -6659,10 +6667,10 @@
       <c r="AC37">
         <v>252</v>
       </c>
-      <c r="AD37">
+      <c r="AD37" s="1">
         <v>252</v>
       </c>
-      <c r="AE37">
+      <c r="AE37" s="1">
         <v>238</v>
       </c>
       <c r="AF37">
@@ -6823,10 +6831,10 @@
       <c r="AC38">
         <v>269</v>
       </c>
-      <c r="AD38">
+      <c r="AD38" s="1">
         <v>269</v>
       </c>
-      <c r="AE38">
+      <c r="AE38" s="1">
         <v>255</v>
       </c>
       <c r="AF38">
@@ -6987,10 +6995,10 @@
       <c r="AC39">
         <v>276</v>
       </c>
-      <c r="AD39">
+      <c r="AD39" s="1">
         <v>276</v>
       </c>
-      <c r="AE39">
+      <c r="AE39" s="1">
         <v>266</v>
       </c>
       <c r="AF39">
@@ -7151,10 +7159,10 @@
       <c r="AC40">
         <v>287</v>
       </c>
-      <c r="AD40">
+      <c r="AD40" s="1">
         <v>287</v>
       </c>
-      <c r="AE40">
+      <c r="AE40" s="1">
         <v>280</v>
       </c>
       <c r="AF40">
@@ -7315,10 +7323,10 @@
       <c r="AC41">
         <v>283</v>
       </c>
-      <c r="AD41">
+      <c r="AD41" s="1">
         <v>283</v>
       </c>
-      <c r="AE41">
+      <c r="AE41" s="1">
         <v>276</v>
       </c>
       <c r="AF41">
@@ -7479,10 +7487,10 @@
       <c r="AC42">
         <v>297</v>
       </c>
-      <c r="AD42">
+      <c r="AD42" s="1">
         <v>297</v>
       </c>
-      <c r="AE42">
+      <c r="AE42" s="1">
         <v>290</v>
       </c>
       <c r="AF42">
@@ -7643,10 +7651,10 @@
       <c r="AC43">
         <v>315</v>
       </c>
-      <c r="AD43">
+      <c r="AD43" s="1">
         <v>315</v>
       </c>
-      <c r="AE43">
+      <c r="AE43" s="1">
         <v>308</v>
       </c>
       <c r="AF43">
@@ -7807,10 +7815,10 @@
       <c r="AC44">
         <v>626</v>
       </c>
-      <c r="AD44">
+      <c r="AD44" s="1">
         <v>626</v>
       </c>
-      <c r="AE44">
+      <c r="AE44" s="1">
         <v>619</v>
       </c>
       <c r="AF44">
@@ -7971,10 +7979,10 @@
       <c r="AC45">
         <v>549</v>
       </c>
-      <c r="AD45">
+      <c r="AD45" s="1">
         <v>549</v>
       </c>
-      <c r="AE45">
+      <c r="AE45" s="1">
         <v>567</v>
       </c>
       <c r="AF45">
@@ -8135,10 +8143,10 @@
       <c r="AC46">
         <v>332</v>
       </c>
-      <c r="AD46">
+      <c r="AD46" s="1">
         <v>332</v>
       </c>
-      <c r="AE46">
+      <c r="AE46" s="1">
         <v>339</v>
       </c>
       <c r="AF46">
@@ -8299,10 +8307,10 @@
       <c r="AC47">
         <v>343</v>
       </c>
-      <c r="AD47">
+      <c r="AD47" s="1">
         <v>343</v>
       </c>
-      <c r="AE47">
+      <c r="AE47" s="1">
         <v>350</v>
       </c>
       <c r="AF47">
@@ -8463,10 +8471,10 @@
       <c r="AC48">
         <v>353</v>
       </c>
-      <c r="AD48">
+      <c r="AD48" s="1">
         <v>353</v>
       </c>
-      <c r="AE48">
+      <c r="AE48" s="1">
         <v>360</v>
       </c>
       <c r="AF48">
@@ -8627,10 +8635,10 @@
       <c r="AC49">
         <v>402</v>
       </c>
-      <c r="AD49">
+      <c r="AD49" s="1">
         <v>402</v>
       </c>
-      <c r="AE49">
+      <c r="AE49" s="1">
         <v>409</v>
       </c>
       <c r="AF49">
@@ -8791,10 +8799,10 @@
       <c r="AC50">
         <v>413</v>
       </c>
-      <c r="AD50">
+      <c r="AD50" s="1">
         <v>413</v>
       </c>
-      <c r="AE50">
+      <c r="AE50" s="1">
         <v>420</v>
       </c>
       <c r="AF50">
@@ -8955,10 +8963,10 @@
       <c r="AC51">
         <v>413</v>
       </c>
-      <c r="AD51">
+      <c r="AD51" s="1">
         <v>413</v>
       </c>
-      <c r="AE51">
+      <c r="AE51" s="1">
         <v>420</v>
       </c>
       <c r="AF51">
@@ -9119,10 +9127,10 @@
       <c r="AC52">
         <v>427</v>
       </c>
-      <c r="AD52">
+      <c r="AD52" s="1">
         <v>427</v>
       </c>
-      <c r="AE52">
+      <c r="AE52" s="1">
         <v>434</v>
       </c>
       <c r="AF52">
@@ -9283,10 +9291,10 @@
       <c r="AC53">
         <v>318</v>
       </c>
-      <c r="AD53">
+      <c r="AD53" s="1">
         <v>318</v>
       </c>
-      <c r="AE53">
+      <c r="AE53" s="1">
         <v>325</v>
       </c>
       <c r="AF53">
@@ -9447,10 +9455,10 @@
       <c r="AC54">
         <v>336</v>
       </c>
-      <c r="AD54">
+      <c r="AD54" s="1">
         <v>336</v>
       </c>
-      <c r="AE54">
+      <c r="AE54" s="1">
         <v>329</v>
       </c>
       <c r="AF54">
@@ -9611,10 +9619,10 @@
       <c r="AC55">
         <v>129</v>
       </c>
-      <c r="AD55">
+      <c r="AD55" s="1">
         <v>258</v>
       </c>
-      <c r="AE55">
+      <c r="AE55" s="1">
         <v>129</v>
       </c>
       <c r="AF55">
@@ -9806,11 +9814,11 @@
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="AD56">
+      <c r="AD56" s="1">
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="AE56">
+      <c r="AE56" s="1">
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
@@ -10029,11 +10037,11 @@
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="AD57">
+      <c r="AD57" s="1">
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="AE57">
+      <c r="AE57" s="1">
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
@@ -10255,11 +10263,11 @@
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="AD58">
+      <c r="AD58" s="1">
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="AE58">
+      <c r="AE58" s="1">
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
@@ -10484,11 +10492,11 @@
         <f t="shared" ref="AC59" si="18">AC60-(AC35-AC34)</f>
         <v>245</v>
       </c>
-      <c r="AD59">
+      <c r="AD59" s="1">
         <f t="shared" ref="AD59" si="19">AD60-(AD35-AD34)</f>
         <v>245</v>
       </c>
-      <c r="AE59">
+      <c r="AE59" s="1">
         <f t="shared" ref="AE59:AF59" si="20">AE60-(AE35-AE34)</f>
         <v>234</v>
       </c>
@@ -10687,10 +10695,10 @@
       <c r="AC60">
         <v>245</v>
       </c>
-      <c r="AD60">
+      <c r="AD60" s="1">
         <v>245</v>
       </c>
-      <c r="AE60">
+      <c r="AE60" s="1">
         <v>234</v>
       </c>
       <c r="AF60">
@@ -10869,10 +10877,10 @@
       <c r="AC61">
         <v>245</v>
       </c>
-      <c r="AD61">
+      <c r="AD61" s="1">
         <v>245</v>
       </c>
-      <c r="AE61">
+      <c r="AE61" s="1">
         <v>234</v>
       </c>
       <c r="AF61">
@@ -11054,11 +11062,11 @@
       <c r="AC62">
         <v>129</v>
       </c>
-      <c r="AD62">
-        <v>258</v>
-      </c>
-      <c r="AE62">
-        <v>258</v>
+      <c r="AD62" s="1">
+        <v>129</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>129</v>
       </c>
       <c r="AF62">
         <v>231</v>
@@ -11242,10 +11250,10 @@
       <c r="AC63">
         <v>129</v>
       </c>
-      <c r="AD63">
-        <v>129</v>
-      </c>
-      <c r="AE63">
+      <c r="AD63" s="1">
+        <v>129</v>
+      </c>
+      <c r="AE63" s="1">
         <v>129</v>
       </c>
       <c r="AF63">
@@ -11433,10 +11441,10 @@
       <c r="AC64">
         <v>129</v>
       </c>
-      <c r="AD64">
-        <v>258</v>
-      </c>
-      <c r="AE64">
+      <c r="AD64" s="1">
+        <v>129</v>
+      </c>
+      <c r="AE64" s="1">
         <v>129</v>
       </c>
       <c r="AF64">
@@ -11627,11 +11635,11 @@
       <c r="AC65">
         <v>129</v>
       </c>
-      <c r="AD65">
-        <v>129</v>
-      </c>
-      <c r="AE65">
-        <v>258</v>
+      <c r="AD65" s="1">
+        <v>129</v>
+      </c>
+      <c r="AE65" s="1">
+        <v>129</v>
       </c>
       <c r="AF65">
         <v>231</v>
@@ -11734,41 +11742,6 @@
       </c>
       <c r="BM65">
         <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:65">
-      <c r="BC66" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD66" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE66" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF66" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG66" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH66" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI66" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ66" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK66" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL66" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM66" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
